--- a/biology/Zoologie/Darevskia/Darevskia.xlsx
+++ b/biology/Zoologie/Darevskia/Darevskia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Darevskia est un genre de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darevskia est un genre de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 32 espèces de ce genre se rencontrent dans le sud-est de l'Europe et dans le sud-ouest de l'Asie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 32 espèces de ce genre se rencontrent dans le sud-est de l'Europe et dans le sud-ouest de l'Asie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont d'assez petite taille et mènent une vie terrestre et diurne. De nombreuses espèces sont parthénogénique et sont supposées être issues d'hybridations entre d'autres espèces de ce genre (principalement Darevskia valentini et Darevskia raddei[2]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont d'assez petite taille et mènent une vie terrestre et diurne. De nombreuses espèces sont parthénogénique et sont supposées être issues d'hybridations entre d'autres espèces de ce genre (principalement Darevskia valentini et Darevskia raddei).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 mars 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 mars 2015) :
 Darevskia alpina (Darevsky, 1967)
 Darevskia armeniaca (Méhely, 1909)
 Darevskia bendimahiensis (Schmidtler, Eiselt &amp; Darevsky, 1994)
@@ -635,9 +653,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de l'herpétologiste russe Ilia Sergueïevitch Darevski (1924-2009)[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de l'herpétologiste russe Ilia Sergueïevitch Darevski (1924-2009).
 </t>
         </is>
       </c>
@@ -666,7 +686,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Arribas, 1999 : Phylogeny and relationships of the mountain lizards of Europe and Near East (Archaeolacerta MERTENS, 1921, sensu lato) and their relationships among the eurasian lacertid radiation. Russian Journal of Herpetology vol. 6 no 1, p. 1-22.</t>
         </is>
